--- a/Intquestions.xlsx
+++ b/Intquestions.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interview Question Bank\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A27B2A9-71C1-4CEC-BB71-490E4C045280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8501268-94FE-4F68-B189-A1E49F48DC16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Nitin Swami - Interview Questions</t>
   </si>
@@ -193,13 +187,16 @@
   </si>
   <si>
     <t>Hello brother this is the third time I am tryin to make a few more changees to the xl file and these changes have been commiteed by Mr Nitin Swami</t>
+  </si>
+  <si>
+    <t>xyz..................................</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -368,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -562,81 +559,81 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0856A20-8F21-46B0-8911-E53F0CB9F569}">
-  <dimension ref="A1:B62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="178.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -644,37 +641,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -682,179 +679,184 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Intquestions.xlsx
+++ b/Intquestions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interview Question Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A27B2A9-71C1-4CEC-BB71-490E4C045280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB0A48-272E-47BC-8FF5-9E27FC8C6BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8501268-94FE-4F68-B189-A1E49F48DC16}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Nitin Swami - Interview Questions</t>
   </si>
@@ -192,14 +192,61 @@
     <t>Q3. Have the function ArrayChallenge(arr) take the array of numbers stored in arr and return the string true if any combination of numbers in the array(excluding the largest number) can be added up to equal the largest number in the array, otherwise return the string false. For example if the arr contains [4, 6, 23, 10, 1, 3] the output should return true because 4+6+10+3 = 23 . The array will not be empty, will not contain all the same elements, may not contain negative numbers. Examples input:[5, 7, 16, 1, 2] Output: false; Example2 : input=[3, 5, -1, 8, 12] output - true</t>
   </si>
   <si>
-    <t>Hello brother this is the third time I am tryin to make a few more changees to the xl file and these changes have been commiteed by Mr Nitin Swami</t>
+    <t>1) Difference between list and tuple</t>
+  </si>
+  <si>
+    <t>2) Difference between dictionary and list</t>
+  </si>
+  <si>
+    <t>3) What is Generator? Where do you use this in your project ?</t>
+  </si>
+  <si>
+    <t>4) How to create abstraction class?</t>
+  </si>
+  <si>
+    <t>5) What is closure?</t>
+  </si>
+  <si>
+    <t>8) How memory managed in Python ?</t>
+  </si>
+  <si>
+    <t>9) What is lambda?</t>
+  </si>
+  <si>
+    <t>Vaibhav Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) What is decorator? Write a decorator which takes string input and modified it in reverse string.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) Do you know about the time or datetime modules ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10) How map function works ? Explain with example.
+11) What is comprehension ?
+12) What is monkey-patching ?
+13) What is pickling and unpickling ?
+</t>
+  </si>
+  <si>
+    <t>#Django questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) What is serialization ?
+2) What is MVT ?
+3) What is WSGI and ASGI?
+4) Give me file structure of django project ?
+5) Use of apps in django.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +277,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,11 +312,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0856A20-8F21-46B0-8911-E53F0CB9F569}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,9 +920,69 @@
         <v>54</v>
       </c>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
